--- a/public/DataSiswa/data_siswa_bahan_uji.xlsx
+++ b/public/DataSiswa/data_siswa_bahan_uji.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MUCHSIN MAULANA\OneDrive\Documents\Kuliah\Semester 5\Capstone Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EC855B9-B79C-4B75-BD4D-DC5430D0A4A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAC49B4C-4DC8-4F32-B346-6115A7A1EDE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,19 +43,19 @@
     <t>YA PONDOK</t>
   </si>
   <si>
-    <t>kjlk</t>
-  </si>
-  <si>
-    <t>dsadbs</t>
-  </si>
-  <si>
-    <t>xczxcnzm</t>
-  </si>
-  <si>
-    <t>sha</t>
-  </si>
-  <si>
-    <t>dksd@gmail.com</t>
+    <t>lingjh</t>
+  </si>
+  <si>
+    <t>hbhghghh</t>
+  </si>
+  <si>
+    <t>hbhjbj</t>
+  </si>
+  <si>
+    <t>qwvhvhertyui</t>
+  </si>
+  <si>
+    <t>liggggn@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -450,7 +450,7 @@
   <dimension ref="B1:O1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -460,13 +460,13 @@
   <sheetData>
     <row r="1" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B1" s="1">
-        <v>777</v>
+        <v>98956448</v>
       </c>
       <c r="C1" s="1">
-        <v>1111</v>
+        <v>56623456</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>0</v>
@@ -478,13 +478,13 @@
         <v>1</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>11</v>
